--- a/prueba repositorio.xlsx
+++ b/prueba repositorio.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7c03ba0ae59c732/Escritorio/analisis de datos/analisis-de-datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D2F04E46CFB4ACB3E20EA9D90D1DC693EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9043D5D-0DBA-4BCE-B501-6140A3A8FA9A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>SUM(A1:A5)</f>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(C1:C5)</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>MAX(E1:E5)</f>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>MIN(G1:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prueba repositorio.xlsx
+++ b/prueba repositorio.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7c03ba0ae59c732/Escritorio/analisis de datos/analisis-de-datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Documents\analisis-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D2F04E46CFB4ACB3E20EA9D90D1DC693EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9043D5D-0DBA-4BCE-B501-6140A3A8FA9A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3645A-90D0-499B-97F5-B8CFE54E7412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">suma </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -359,7 +376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -373,7 +390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -387,7 +404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -401,7 +418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -415,7 +432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SUM(A1:A5)</f>
         <v>15</v>
@@ -431,6 +448,30 @@
       <c r="G6">
         <f>MIN(G1:G5)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>SUM(A11:A13)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/prueba repositorio.xlsx
+++ b/prueba repositorio.xlsx
@@ -1,42 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Documents\analisis-de-datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7c03ba0ae59c732/Escritorio/analisis de datos/analisis-de-datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3645A-90D0-499B-97F5-B8CFE54E7412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2FB3645A-90D0-499B-97F5-B8CFE54E7412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F516244-B8EA-49D0-8B10-9A76E71E9666}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">suma </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -354,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -376,7 +373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -390,7 +387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -404,7 +401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -418,7 +415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -432,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>SUM(A1:A5)</f>
         <v>15</v>
@@ -450,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -459,19 +456,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/prueba repositorio.xlsx
+++ b/prueba repositorio.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7c03ba0ae59c732/Escritorio/analisis de datos/analisis-de-datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Documents\analisis-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2FB3645A-90D0-499B-97F5-B8CFE54E7412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F516244-B8EA-49D0-8B10-9A76E71E9666}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A602F83-BE84-45ED-9319-A6B18491F200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">suma </t>
   </si>
@@ -34,6 +43,9 @@
   </si>
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>que hace</t>
   </si>
 </sst>
 </file>
@@ -354,12 +366,12 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -373,7 +385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -387,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -401,7 +413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -415,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -429,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SUM(A1:A5)</f>
         <v>15</v>
@@ -447,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -456,7 +468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -464,19 +476,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
